--- a/results/epsilon/chungtoi/ChungToi_EpsilonResults_1MGames_WithPolicySize.xlsx
+++ b/results/epsilon/chungtoi/ChungToi_EpsilonResults_1MGames_WithPolicySize.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="0" yWindow="110" windowWidth="19140" windowHeight="6840"/>
   </bookViews>
   <sheets>
-    <sheet name="ChungToi_EpsilonResults_1Millio" sheetId="1" r:id="rId1"/>
+    <sheet name="ChungToi_EpsilonResults_1Mi (2" sheetId="2" r:id="rId1"/>
+    <sheet name="Graph" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Epsilon</t>
   </si>
@@ -29,6 +30,15 @@
   </si>
   <si>
     <t>StatesInPolicy</t>
+  </si>
+  <si>
+    <t>Win Rate</t>
+  </si>
+  <si>
+    <t>Loss Rate</t>
+  </si>
+  <si>
+    <t>Draw Rate</t>
   </si>
 </sst>
 </file>
@@ -469,7 +479,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -512,11 +522,13 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -556,6 +568,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -584,40 +597,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB" sz="1600"/>
-              <a:t>Results of </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>One Million </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" sz="1600"/>
-              <a:t>Chung Toi Games </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" sz="1600" baseline="0"/>
-              <a:t>vs. Epsilon</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB" sz="1600"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -629,11 +608,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>ChungToi_EpsilonResults_1Millio!$B$1</c:f>
+              <c:f>'ChungToi_EpsilonResults_1Mi (2'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ChungToiWin</c:v>
+                  <c:v>Win Rate</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -643,7 +622,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>ChungToi_EpsilonResults_1Millio!$A$2:$A$102</c:f>
+              <c:f>'ChungToi_EpsilonResults_1Mi (2'!$A$2:$A$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -955,312 +934,312 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ChungToi_EpsilonResults_1Millio!$B$2:$B$102</c:f>
+              <c:f>'ChungToi_EpsilonResults_1Mi (2'!$E$2:$E$102</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>388871</c:v>
+                  <c:v>0.38887100000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>634623</c:v>
+                  <c:v>0.63462300000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>693126</c:v>
+                  <c:v>0.69312600000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>722343</c:v>
+                  <c:v>0.72234299999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>734065</c:v>
+                  <c:v>0.73406499999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>745001</c:v>
+                  <c:v>0.74500100000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>754959</c:v>
+                  <c:v>0.75495900000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>755808</c:v>
+                  <c:v>0.75580800000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>757235</c:v>
+                  <c:v>0.75723499999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>755407</c:v>
+                  <c:v>0.75540700000000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>756229</c:v>
+                  <c:v>0.75622900000000004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>754943</c:v>
+                  <c:v>0.75494300000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>754116</c:v>
+                  <c:v>0.75411600000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>754867</c:v>
+                  <c:v>0.75486699999999995</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>751808</c:v>
+                  <c:v>0.75180800000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>752897</c:v>
+                  <c:v>0.75289700000000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>747959</c:v>
+                  <c:v>0.74795900000000004</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>748596</c:v>
+                  <c:v>0.74859600000000004</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>745686</c:v>
+                  <c:v>0.74568599999999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>745823</c:v>
+                  <c:v>0.74582300000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>742053</c:v>
+                  <c:v>0.74205299999999996</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>741739</c:v>
+                  <c:v>0.74173900000000004</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>738435</c:v>
+                  <c:v>0.73843499999999995</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>737261</c:v>
+                  <c:v>0.73726100000000006</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>735094</c:v>
+                  <c:v>0.73509400000000003</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>732161</c:v>
+                  <c:v>0.73216099999999995</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>731953</c:v>
+                  <c:v>0.73195299999999996</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>728439</c:v>
+                  <c:v>0.72843899999999995</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>724518</c:v>
+                  <c:v>0.724518</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>721278</c:v>
+                  <c:v>0.72127799999999997</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>718310</c:v>
+                  <c:v>0.71831</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>718434</c:v>
+                  <c:v>0.71843400000000002</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>713907</c:v>
+                  <c:v>0.71390699999999996</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>711133</c:v>
+                  <c:v>0.71113300000000002</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>706976</c:v>
+                  <c:v>0.70697600000000005</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>705874</c:v>
+                  <c:v>0.705874</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>703749</c:v>
+                  <c:v>0.70374899999999996</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>699680</c:v>
+                  <c:v>0.69967999999999997</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>697233</c:v>
+                  <c:v>0.69723299999999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>692536</c:v>
+                  <c:v>0.69253600000000004</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>690659</c:v>
+                  <c:v>0.69065900000000002</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>687001</c:v>
+                  <c:v>0.68700099999999997</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>683816</c:v>
+                  <c:v>0.68381599999999998</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>680042</c:v>
+                  <c:v>0.68004200000000004</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>676142</c:v>
+                  <c:v>0.67614200000000002</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>672159</c:v>
+                  <c:v>0.67215899999999995</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>669984</c:v>
+                  <c:v>0.66998400000000002</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>666404</c:v>
+                  <c:v>0.666404</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>664153</c:v>
+                  <c:v>0.66415299999999999</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>659304</c:v>
+                  <c:v>0.659304</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>655926</c:v>
+                  <c:v>0.65592600000000001</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>653791</c:v>
+                  <c:v>0.65379100000000001</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>649801</c:v>
+                  <c:v>0.64980099999999996</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>646034</c:v>
+                  <c:v>0.646034</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>641436</c:v>
+                  <c:v>0.64143600000000001</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>638692</c:v>
+                  <c:v>0.63869200000000004</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>634101</c:v>
+                  <c:v>0.63410100000000003</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>631436</c:v>
+                  <c:v>0.631436</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>626600</c:v>
+                  <c:v>0.62660000000000005</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>623148</c:v>
+                  <c:v>0.62314800000000004</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>619592</c:v>
+                  <c:v>0.61959200000000003</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>615203</c:v>
+                  <c:v>0.61520300000000006</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>611948</c:v>
+                  <c:v>0.61194800000000005</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>607609</c:v>
+                  <c:v>0.60760899999999995</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>603587</c:v>
+                  <c:v>0.60358699999999998</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>600388</c:v>
+                  <c:v>0.60038800000000003</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>596012</c:v>
+                  <c:v>0.59601199999999999</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>591345</c:v>
+                  <c:v>0.59134500000000001</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>587240</c:v>
+                  <c:v>0.58723999999999998</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>582499</c:v>
+                  <c:v>0.58249899999999999</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>579439</c:v>
+                  <c:v>0.57943900000000004</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>574495</c:v>
+                  <c:v>0.57449499999999998</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>571006</c:v>
+                  <c:v>0.57100600000000001</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>565852</c:v>
+                  <c:v>0.56585200000000002</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>560938</c:v>
+                  <c:v>0.56093800000000005</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>557543</c:v>
+                  <c:v>0.55754300000000001</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>551829</c:v>
+                  <c:v>0.55182900000000001</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>547353</c:v>
+                  <c:v>0.54735299999999998</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>542625</c:v>
+                  <c:v>0.54262500000000002</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>537357</c:v>
+                  <c:v>0.53735699999999997</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>532581</c:v>
+                  <c:v>0.53258099999999997</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>527455</c:v>
+                  <c:v>0.52745500000000001</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>523048</c:v>
+                  <c:v>0.52304799999999996</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>517649</c:v>
+                  <c:v>0.51764900000000003</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>512397</c:v>
+                  <c:v>0.51239699999999999</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>507319</c:v>
+                  <c:v>0.50731899999999996</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>502074</c:v>
+                  <c:v>0.50207400000000002</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>495275</c:v>
+                  <c:v>0.49527500000000002</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>489576</c:v>
+                  <c:v>0.48957600000000001</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>484244</c:v>
+                  <c:v>0.48424400000000001</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>477892</c:v>
+                  <c:v>0.47789199999999998</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>472125</c:v>
+                  <c:v>0.47212500000000002</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>465218</c:v>
+                  <c:v>0.46521800000000002</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>458323</c:v>
+                  <c:v>0.45832299999999998</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>451502</c:v>
+                  <c:v>0.45150200000000001</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>446651</c:v>
+                  <c:v>0.44665100000000002</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>439701</c:v>
+                  <c:v>0.43970100000000001</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>432816</c:v>
+                  <c:v>0.43281599999999998</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>424109</c:v>
+                  <c:v>0.42410900000000001</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>417663</c:v>
+                  <c:v>0.41766300000000001</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>410228</c:v>
+                  <c:v>0.41022799999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1272,11 +1251,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>ChungToi_EpsilonResults_1Millio!$C$1</c:f>
+              <c:f>'ChungToi_EpsilonResults_1Mi (2'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ChungToiLoss</c:v>
+                  <c:v>Loss Rate</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1286,7 +1265,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>ChungToi_EpsilonResults_1Millio!$A$2:$A$102</c:f>
+              <c:f>'ChungToi_EpsilonResults_1Mi (2'!$A$2:$A$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -1598,312 +1577,312 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ChungToi_EpsilonResults_1Millio!$C$2:$C$102</c:f>
+              <c:f>'ChungToi_EpsilonResults_1Mi (2'!$F$2:$F$102</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>422589</c:v>
+                  <c:v>0.42258899999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>254920</c:v>
+                  <c:v>0.25491999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>215608</c:v>
+                  <c:v>0.21560799999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>194719</c:v>
+                  <c:v>0.194719</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>188954</c:v>
+                  <c:v>0.18895400000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>181631</c:v>
+                  <c:v>0.18163099999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>175580</c:v>
+                  <c:v>0.17558000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>176777</c:v>
+                  <c:v>0.17677699999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>175874</c:v>
+                  <c:v>0.175874</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>176876</c:v>
+                  <c:v>0.17687600000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>177250</c:v>
+                  <c:v>0.17724999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>178846</c:v>
+                  <c:v>0.178846</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>180033</c:v>
+                  <c:v>0.180033</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>180022</c:v>
+                  <c:v>0.18002199999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>182782</c:v>
+                  <c:v>0.182782</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>182428</c:v>
+                  <c:v>0.18242800000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>187232</c:v>
+                  <c:v>0.18723200000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>186658</c:v>
+                  <c:v>0.18665799999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>189909</c:v>
+                  <c:v>0.18990899999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>189496</c:v>
+                  <c:v>0.189496</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>192162</c:v>
+                  <c:v>0.192162</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>193212</c:v>
+                  <c:v>0.19321199999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>195399</c:v>
+                  <c:v>0.19539899999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>196578</c:v>
+                  <c:v>0.196578</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>198559</c:v>
+                  <c:v>0.19855900000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>200940</c:v>
+                  <c:v>0.20094000000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>200708</c:v>
+                  <c:v>0.200708</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>203581</c:v>
+                  <c:v>0.20358100000000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>207137</c:v>
+                  <c:v>0.20713699999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>209134</c:v>
+                  <c:v>0.20913399999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>211424</c:v>
+                  <c:v>0.211424</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>211704</c:v>
+                  <c:v>0.211704</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>215023</c:v>
+                  <c:v>0.21502299999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>216942</c:v>
+                  <c:v>0.216942</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>220485</c:v>
+                  <c:v>0.22048499999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>220680</c:v>
+                  <c:v>0.22067999999999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>222645</c:v>
+                  <c:v>0.22264500000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>225485</c:v>
+                  <c:v>0.22548499999999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>227239</c:v>
+                  <c:v>0.227239</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>231102</c:v>
+                  <c:v>0.231102</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>231971</c:v>
+                  <c:v>0.23197100000000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>234543</c:v>
+                  <c:v>0.234543</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>237323</c:v>
+                  <c:v>0.23732300000000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>239875</c:v>
+                  <c:v>0.239875</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>242622</c:v>
+                  <c:v>0.242622</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>245792</c:v>
+                  <c:v>0.24579200000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>246869</c:v>
+                  <c:v>0.24686900000000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>249804</c:v>
+                  <c:v>0.249804</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>250979</c:v>
+                  <c:v>0.25097900000000001</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>254466</c:v>
+                  <c:v>0.25446600000000003</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>256690</c:v>
+                  <c:v>0.25668999999999997</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>258424</c:v>
+                  <c:v>0.25842399999999999</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>261135</c:v>
+                  <c:v>0.26113500000000001</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>263278</c:v>
+                  <c:v>0.26327800000000001</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>266793</c:v>
+                  <c:v>0.266793</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>268124</c:v>
+                  <c:v>0.26812399999999997</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>271757</c:v>
+                  <c:v>0.27175700000000003</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>273629</c:v>
+                  <c:v>0.27362900000000001</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>276854</c:v>
+                  <c:v>0.27685399999999999</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>279149</c:v>
+                  <c:v>0.27914899999999998</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>281857</c:v>
+                  <c:v>0.28185700000000002</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>284384</c:v>
+                  <c:v>0.28438400000000003</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>286893</c:v>
+                  <c:v>0.28689300000000001</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>289161</c:v>
+                  <c:v>0.289161</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>292636</c:v>
+                  <c:v>0.29263600000000001</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>294094</c:v>
+                  <c:v>0.29409400000000002</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>297167</c:v>
+                  <c:v>0.29716700000000001</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>300059</c:v>
+                  <c:v>0.30005900000000002</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>302485</c:v>
+                  <c:v>0.302485</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>305512</c:v>
+                  <c:v>0.30551200000000001</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>307247</c:v>
+                  <c:v>0.30724699999999999</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>310601</c:v>
+                  <c:v>0.31060100000000002</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>312759</c:v>
+                  <c:v>0.31275900000000001</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>316026</c:v>
+                  <c:v>0.31602599999999997</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>319461</c:v>
+                  <c:v>0.31946099999999999</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>321588</c:v>
+                  <c:v>0.32158799999999998</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>324799</c:v>
+                  <c:v>0.324799</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>328373</c:v>
+                  <c:v>0.32837300000000003</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>330414</c:v>
+                  <c:v>0.33041399999999999</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>334013</c:v>
+                  <c:v>0.334013</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>336630</c:v>
+                  <c:v>0.33662999999999998</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>340116</c:v>
+                  <c:v>0.34011599999999997</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>342399</c:v>
+                  <c:v>0.34239900000000001</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>346282</c:v>
+                  <c:v>0.34628199999999998</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>348927</c:v>
+                  <c:v>0.34892699999999999</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>352089</c:v>
+                  <c:v>0.35208899999999999</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>354875</c:v>
+                  <c:v>0.354875</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>358794</c:v>
+                  <c:v>0.358794</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>363188</c:v>
+                  <c:v>0.36318800000000001</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>366316</c:v>
+                  <c:v>0.36631599999999997</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>369907</c:v>
+                  <c:v>0.36990699999999999</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>372859</c:v>
+                  <c:v>0.372859</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>377063</c:v>
+                  <c:v>0.37706299999999998</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>381290</c:v>
+                  <c:v>0.38129000000000002</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>384950</c:v>
+                  <c:v>0.38495000000000001</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>387544</c:v>
+                  <c:v>0.387544</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>392135</c:v>
+                  <c:v>0.39213500000000001</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>396324</c:v>
+                  <c:v>0.39632400000000001</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>401561</c:v>
+                  <c:v>0.401561</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>404376</c:v>
+                  <c:v>0.40437600000000001</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>408939</c:v>
+                  <c:v>0.408939</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1915,11 +1894,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>ChungToi_EpsilonResults_1Millio!$D$1</c:f>
+              <c:f>'ChungToi_EpsilonResults_1Mi (2'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ChungToiDraw</c:v>
+                  <c:v>Draw Rate</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1929,7 +1908,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>ChungToi_EpsilonResults_1Millio!$A$2:$A$102</c:f>
+              <c:f>'ChungToi_EpsilonResults_1Mi (2'!$A$2:$A$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -2241,312 +2220,312 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ChungToi_EpsilonResults_1Millio!$D$2:$D$102</c:f>
+              <c:f>'ChungToi_EpsilonResults_1Mi (2'!$G$2:$G$102</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>188540</c:v>
+                  <c:v>0.18854000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>110457</c:v>
+                  <c:v>0.110457</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>91266</c:v>
+                  <c:v>9.1266E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>82938</c:v>
+                  <c:v>8.2937999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>76981</c:v>
+                  <c:v>7.6980999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>73368</c:v>
+                  <c:v>7.3368000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69461</c:v>
+                  <c:v>6.9460999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>67415</c:v>
+                  <c:v>6.7415000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>66891</c:v>
+                  <c:v>6.6891000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>67717</c:v>
+                  <c:v>6.7716999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>66521</c:v>
+                  <c:v>6.6520999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>66211</c:v>
+                  <c:v>6.6211000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>65851</c:v>
+                  <c:v>6.5851000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>65111</c:v>
+                  <c:v>6.5111000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>65410</c:v>
+                  <c:v>6.5409999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>64675</c:v>
+                  <c:v>6.4674999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>64809</c:v>
+                  <c:v>6.4809000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>64746</c:v>
+                  <c:v>6.4745999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>64405</c:v>
+                  <c:v>6.4405000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>64681</c:v>
+                  <c:v>6.4681000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>65785</c:v>
+                  <c:v>6.5784999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>65049</c:v>
+                  <c:v>6.5048999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>66166</c:v>
+                  <c:v>6.6166000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>66161</c:v>
+                  <c:v>6.6160999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>66347</c:v>
+                  <c:v>6.6347000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>66899</c:v>
+                  <c:v>6.6899E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>67339</c:v>
+                  <c:v>6.7338999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>67980</c:v>
+                  <c:v>6.7979999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>68345</c:v>
+                  <c:v>6.8345000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>69588</c:v>
+                  <c:v>6.9587999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>70266</c:v>
+                  <c:v>7.0265999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>69862</c:v>
+                  <c:v>6.9861999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>71070</c:v>
+                  <c:v>7.1069999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>71925</c:v>
+                  <c:v>7.1925000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>72539</c:v>
+                  <c:v>7.2539000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>73446</c:v>
+                  <c:v>7.3445999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>73606</c:v>
+                  <c:v>7.3606000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>74835</c:v>
+                  <c:v>7.4834999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>75528</c:v>
+                  <c:v>7.5527999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>76362</c:v>
+                  <c:v>7.6361999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>77370</c:v>
+                  <c:v>7.7369999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>78456</c:v>
+                  <c:v>7.8455999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>78861</c:v>
+                  <c:v>7.8861000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>80083</c:v>
+                  <c:v>8.0083000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>81236</c:v>
+                  <c:v>8.1236000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>82049</c:v>
+                  <c:v>8.2048999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>83147</c:v>
+                  <c:v>8.3146999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>83792</c:v>
+                  <c:v>8.3792000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>84868</c:v>
+                  <c:v>8.4867999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>86230</c:v>
+                  <c:v>8.6230000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>87384</c:v>
+                  <c:v>8.7384000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>87785</c:v>
+                  <c:v>8.7785000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>89064</c:v>
+                  <c:v>8.9064000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>90688</c:v>
+                  <c:v>9.0688000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>91771</c:v>
+                  <c:v>9.1771000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>93184</c:v>
+                  <c:v>9.3184000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>94142</c:v>
+                  <c:v>9.4142000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>94935</c:v>
+                  <c:v>9.4935000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>96546</c:v>
+                  <c:v>9.6546000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>97703</c:v>
+                  <c:v>9.7702999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>98551</c:v>
+                  <c:v>9.8551E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>100413</c:v>
+                  <c:v>0.100413</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>101159</c:v>
+                  <c:v>0.101159</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>103230</c:v>
+                  <c:v>0.10323</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>103777</c:v>
+                  <c:v>0.10377699999999999</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>105518</c:v>
+                  <c:v>0.105518</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>106821</c:v>
+                  <c:v>0.106821</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>108596</c:v>
+                  <c:v>0.108596</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>110275</c:v>
+                  <c:v>0.110275</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>111989</c:v>
+                  <c:v>0.11198900000000001</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>113314</c:v>
+                  <c:v>0.113314</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>114904</c:v>
+                  <c:v>0.11490400000000001</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>116235</c:v>
+                  <c:v>0.116235</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>118122</c:v>
+                  <c:v>0.118122</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>119601</c:v>
+                  <c:v>0.119601</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>120869</c:v>
+                  <c:v>0.120869</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>123372</c:v>
+                  <c:v>0.123372</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>124274</c:v>
+                  <c:v>0.124274</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>126961</c:v>
+                  <c:v>0.12696099999999999</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>128630</c:v>
+                  <c:v>0.12862999999999999</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>130789</c:v>
+                  <c:v>0.13078899999999999</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>132429</c:v>
+                  <c:v>0.13242899999999999</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>134553</c:v>
+                  <c:v>0.13455300000000001</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>136069</c:v>
+                  <c:v>0.136069</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>138676</c:v>
+                  <c:v>0.13867599999999999</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>140592</c:v>
+                  <c:v>0.14059199999999999</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>143051</c:v>
+                  <c:v>0.14305100000000001</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>145931</c:v>
+                  <c:v>0.14593100000000001</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>147236</c:v>
+                  <c:v>0.14723600000000001</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>149440</c:v>
+                  <c:v>0.14943999999999999</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>152201</c:v>
+                  <c:v>0.152201</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>155016</c:v>
+                  <c:v>0.15501599999999999</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>157719</c:v>
+                  <c:v>0.157719</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>160387</c:v>
+                  <c:v>0.160387</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>163548</c:v>
+                  <c:v>0.163548</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>165805</c:v>
+                  <c:v>0.16580500000000001</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>168164</c:v>
+                  <c:v>0.16816400000000001</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>170860</c:v>
+                  <c:v>0.17086000000000001</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>174330</c:v>
+                  <c:v>0.17433000000000001</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>177961</c:v>
+                  <c:v>0.17796100000000001</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>180833</c:v>
+                  <c:v>0.18083299999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2563,882 +2542,51 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="175374720"/>
-        <c:axId val="175376640"/>
+        <c:axId val="192140416"/>
+        <c:axId val="233346560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="175374720"/>
+        <c:axId val="192140416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Epsilon</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175376640"/>
+        <c:crossAx val="233346560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="5"/>
+        <c:tickMarkSkip val="5"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="175376640"/>
+        <c:axId val="233346560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1000000"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t># of Games</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175374720"/>
+        <c:crossAx val="192140416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB" sz="1600"/>
-              <a:t>Number</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" sz="1600" baseline="0"/>
-              <a:t> of States in Monte Carlo Agent's Policy After One Million Chung Toi Games vs. Epsilon</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB" sz="1600"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ChungToi_EpsilonResults_1Millio!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>StatesInPolicy</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>ChungToi_EpsilonResults_1Millio!$A$2:$A$102</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.9999999999999895E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.109999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.119999999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.12999999999999901</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.13999999999999899</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.28000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.28999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.47</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.48</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.49</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.51</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.52</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.53</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.54</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.56000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.56999999999999995</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.57999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.59</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.61</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.62</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.63</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.64</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.66</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.67</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.68</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.69</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.71</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.72</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.73</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.74</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.76</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.77</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.78</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.79</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.81</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.82</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.83</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.84</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.86</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.87</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.88</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.89</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.91</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.92</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.93</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.94</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.96</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.97</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.98</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.99</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>ChungToi_EpsilonResults_1Millio!$E$2:$E$102</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>194619</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>206021</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>209497</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>215273</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>220201</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>223488</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>227049</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>230321</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>233653</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>237767</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>239956</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>242315</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>244767</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>248068</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>250052</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>252188</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>254426</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>255631</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>257941</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>259651</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>261438</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>262145</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>264910</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>265650</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>267967</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>269026</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>270441</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>271648</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>273566</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>275091</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>276438</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>277281</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>278657</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>280346</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>281531</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>282556</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>284253</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>284997</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>286285</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>287574</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>288415</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>289726</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>291461</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>292424</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>293734</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>294978</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>295550</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>296859</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>297691</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>299002</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>299969</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>301321</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>302270</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>303088</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>304318</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>305520</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>306541</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>307011</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>308421</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>309250</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>310678</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>311346</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>312338</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>313041</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>314155</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>315131</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>315682</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>316958</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>317805</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>318693</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>319708</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>320589</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>321348</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>322184</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>322910</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>323661</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>324571</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>325371</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>326229</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>326177</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>327620</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>328238</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>328886</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>329473</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>330646</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>331283</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>331692</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>332497</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>332933</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>333678</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>334214</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>334658</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>335176</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>335941</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>336316</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>336562</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>336909</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>337172</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>337500</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>337986</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>338059</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="175409792"/>
-        <c:axId val="175416064"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="175409792"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Epsilon</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175416064"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:tickLblSkip val="5"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="175416064"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t># of States</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175409792"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3455,21 +2603,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>3174</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3478,36 +2628,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>590551</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>25401</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3803,13 +2923,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3823,10 +2945,19 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3839,11 +2970,23 @@
       <c r="D2">
         <v>188540</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
+        <f>B2/1000000</f>
+        <v>0.38887100000000002</v>
+      </c>
+      <c r="F2" s="1">
+        <f>C2/1000000</f>
+        <v>0.42258899999999999</v>
+      </c>
+      <c r="G2" s="1">
+        <f>D2/1000000</f>
+        <v>0.18854000000000001</v>
+      </c>
+      <c r="H2">
         <v>194619</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.01</v>
       </c>
@@ -3856,11 +2999,23 @@
       <c r="D3">
         <v>110457</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E66" si="0">B3/1000000</f>
+        <v>0.63462300000000005</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F66" si="1">C3/1000000</f>
+        <v>0.25491999999999998</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G66" si="2">D3/1000000</f>
+        <v>0.110457</v>
+      </c>
+      <c r="H3">
         <v>206021</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0.02</v>
       </c>
@@ -3873,11 +3028,23 @@
       <c r="D4">
         <v>91266</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.69312600000000002</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="1"/>
+        <v>0.21560799999999999</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="2"/>
+        <v>9.1266E-2</v>
+      </c>
+      <c r="H4">
         <v>209497</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0.03</v>
       </c>
@@ -3890,11 +3057,23 @@
       <c r="D5">
         <v>82938</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.72234299999999996</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.194719</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="2"/>
+        <v>8.2937999999999998E-2</v>
+      </c>
+      <c r="H5">
         <v>215273</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0.04</v>
       </c>
@@ -3907,11 +3086,23 @@
       <c r="D6">
         <v>76981</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.73406499999999997</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.18895400000000001</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="2"/>
+        <v>7.6980999999999994E-2</v>
+      </c>
+      <c r="H6">
         <v>220201</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0.05</v>
       </c>
@@ -3924,11 +3115,23 @@
       <c r="D7">
         <v>73368</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.74500100000000002</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.18163099999999999</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="2"/>
+        <v>7.3368000000000003E-2</v>
+      </c>
+      <c r="H7">
         <v>223488</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.06</v>
       </c>
@@ -3941,11 +3144,23 @@
       <c r="D8">
         <v>69461</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.75495900000000005</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.17558000000000001</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="2"/>
+        <v>6.9460999999999995E-2</v>
+      </c>
+      <c r="H8">
         <v>227049</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -3958,11 +3173,23 @@
       <c r="D9">
         <v>67415</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.75580800000000004</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="1"/>
+        <v>0.17677699999999999</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="2"/>
+        <v>6.7415000000000003E-2</v>
+      </c>
+      <c r="H9">
         <v>230321</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.08</v>
       </c>
@@ -3975,11 +3202,23 @@
       <c r="D10">
         <v>66891</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.75723499999999999</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.175874</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="2"/>
+        <v>6.6891000000000006E-2</v>
+      </c>
+      <c r="H10">
         <v>233653</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>0.09</v>
       </c>
@@ -3992,11 +3231,23 @@
       <c r="D11">
         <v>67717</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.75540700000000005</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.17687600000000001</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="2"/>
+        <v>6.7716999999999999E-2</v>
+      </c>
+      <c r="H11">
         <v>237767</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>9.9999999999999895E-2</v>
       </c>
@@ -4009,11 +3260,23 @@
       <c r="D12">
         <v>66521</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.75622900000000004</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.17724999999999999</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="2"/>
+        <v>6.6520999999999997E-2</v>
+      </c>
+      <c r="H12">
         <v>239956</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0.109999999999999</v>
       </c>
@@ -4026,11 +3289,23 @@
       <c r="D13">
         <v>66211</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.75494300000000003</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.178846</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="2"/>
+        <v>6.6211000000000006E-2</v>
+      </c>
+      <c r="H13">
         <v>242315</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>0.119999999999999</v>
       </c>
@@ -4043,11 +3318,23 @@
       <c r="D14">
         <v>65851</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.75411600000000001</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.180033</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="2"/>
+        <v>6.5851000000000007E-2</v>
+      </c>
+      <c r="H14">
         <v>244767</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>0.12999999999999901</v>
       </c>
@@ -4060,11 +3347,23 @@
       <c r="D15">
         <v>65111</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.75486699999999995</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.18002199999999999</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="2"/>
+        <v>6.5111000000000002E-2</v>
+      </c>
+      <c r="H15">
         <v>248068</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0.13999999999999899</v>
       </c>
@@ -4077,11 +3376,23 @@
       <c r="D16">
         <v>65410</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.75180800000000003</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="1"/>
+        <v>0.182782</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="2"/>
+        <v>6.5409999999999996E-2</v>
+      </c>
+      <c r="H16">
         <v>250052</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0.15</v>
       </c>
@@ -4094,11 +3405,23 @@
       <c r="D17">
         <v>64675</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
+        <v>0.75289700000000004</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="1"/>
+        <v>0.18242800000000001</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="2"/>
+        <v>6.4674999999999996E-2</v>
+      </c>
+      <c r="H17">
         <v>252188</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0.16</v>
       </c>
@@ -4111,11 +3434,23 @@
       <c r="D18">
         <v>64809</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
+        <f t="shared" si="0"/>
+        <v>0.74795900000000004</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="1"/>
+        <v>0.18723200000000001</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="2"/>
+        <v>6.4809000000000005E-2</v>
+      </c>
+      <c r="H18">
         <v>254426</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0.17</v>
       </c>
@@ -4128,11 +3463,23 @@
       <c r="D19">
         <v>64746</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
+        <f t="shared" si="0"/>
+        <v>0.74859600000000004</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="1"/>
+        <v>0.18665799999999999</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="2"/>
+        <v>6.4745999999999998E-2</v>
+      </c>
+      <c r="H19">
         <v>255631</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0.18</v>
       </c>
@@ -4145,11 +3492,23 @@
       <c r="D20">
         <v>64405</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
+        <f t="shared" si="0"/>
+        <v>0.74568599999999996</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="1"/>
+        <v>0.18990899999999999</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="2"/>
+        <v>6.4405000000000004E-2</v>
+      </c>
+      <c r="H20">
         <v>257941</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0.19</v>
       </c>
@@ -4162,11 +3521,23 @@
       <c r="D21">
         <v>64681</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.74582300000000001</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="1"/>
+        <v>0.189496</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="2"/>
+        <v>6.4681000000000002E-2</v>
+      </c>
+      <c r="H21">
         <v>259651</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0.2</v>
       </c>
@@ -4179,11 +3550,23 @@
       <c r="D22">
         <v>65785</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.74205299999999996</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="1"/>
+        <v>0.192162</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="2"/>
+        <v>6.5784999999999996E-2</v>
+      </c>
+      <c r="H22">
         <v>261438</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0.21</v>
       </c>
@@ -4196,11 +3579,23 @@
       <c r="D23">
         <v>65049</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
+        <f t="shared" si="0"/>
+        <v>0.74173900000000004</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="1"/>
+        <v>0.19321199999999999</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="2"/>
+        <v>6.5048999999999996E-2</v>
+      </c>
+      <c r="H23">
         <v>262145</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0.22</v>
       </c>
@@ -4213,11 +3608,23 @@
       <c r="D24">
         <v>66166</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
+        <f t="shared" si="0"/>
+        <v>0.73843499999999995</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="1"/>
+        <v>0.19539899999999999</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="2"/>
+        <v>6.6166000000000003E-2</v>
+      </c>
+      <c r="H24">
         <v>264910</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0.23</v>
       </c>
@@ -4230,11 +3637,23 @@
       <c r="D25">
         <v>66161</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
+        <f t="shared" si="0"/>
+        <v>0.73726100000000006</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="1"/>
+        <v>0.196578</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="2"/>
+        <v>6.6160999999999998E-2</v>
+      </c>
+      <c r="H25">
         <v>265650</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0.24</v>
       </c>
@@ -4247,11 +3666,23 @@
       <c r="D26">
         <v>66347</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
+        <f t="shared" si="0"/>
+        <v>0.73509400000000003</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="1"/>
+        <v>0.19855900000000001</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="2"/>
+        <v>6.6347000000000003E-2</v>
+      </c>
+      <c r="H26">
         <v>267967</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0.25</v>
       </c>
@@ -4264,11 +3695,23 @@
       <c r="D27">
         <v>66899</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="1">
+        <f t="shared" si="0"/>
+        <v>0.73216099999999995</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="1"/>
+        <v>0.20094000000000001</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="2"/>
+        <v>6.6899E-2</v>
+      </c>
+      <c r="H27">
         <v>269026</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0.26</v>
       </c>
@@ -4281,11 +3724,23 @@
       <c r="D28">
         <v>67339</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
+        <f t="shared" si="0"/>
+        <v>0.73195299999999996</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="1"/>
+        <v>0.200708</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="2"/>
+        <v>6.7338999999999996E-2</v>
+      </c>
+      <c r="H28">
         <v>270441</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0.27</v>
       </c>
@@ -4298,11 +3753,23 @@
       <c r="D29">
         <v>67980</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="1">
+        <f t="shared" si="0"/>
+        <v>0.72843899999999995</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="1"/>
+        <v>0.20358100000000001</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="2"/>
+        <v>6.7979999999999999E-2</v>
+      </c>
+      <c r="H29">
         <v>271648</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0.28000000000000003</v>
       </c>
@@ -4315,11 +3782,23 @@
       <c r="D30">
         <v>68345</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
+        <f t="shared" si="0"/>
+        <v>0.724518</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="1"/>
+        <v>0.20713699999999999</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="2"/>
+        <v>6.8345000000000003E-2</v>
+      </c>
+      <c r="H30">
         <v>273566</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0.28999999999999998</v>
       </c>
@@ -4332,11 +3811,23 @@
       <c r="D31">
         <v>69588</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="1">
+        <f t="shared" si="0"/>
+        <v>0.72127799999999997</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="1"/>
+        <v>0.20913399999999999</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="2"/>
+        <v>6.9587999999999997E-2</v>
+      </c>
+      <c r="H31">
         <v>275091</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0.3</v>
       </c>
@@ -4349,11 +3840,23 @@
       <c r="D32">
         <v>70266</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="1">
+        <f t="shared" si="0"/>
+        <v>0.71831</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="1"/>
+        <v>0.211424</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="2"/>
+        <v>7.0265999999999995E-2</v>
+      </c>
+      <c r="H32">
         <v>276438</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0.31</v>
       </c>
@@ -4366,11 +3869,23 @@
       <c r="D33">
         <v>69862</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="1">
+        <f t="shared" si="0"/>
+        <v>0.71843400000000002</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="1"/>
+        <v>0.211704</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="2"/>
+        <v>6.9861999999999994E-2</v>
+      </c>
+      <c r="H33">
         <v>277281</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0.32</v>
       </c>
@@ -4383,11 +3898,23 @@
       <c r="D34">
         <v>71070</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="1">
+        <f t="shared" si="0"/>
+        <v>0.71390699999999996</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="1"/>
+        <v>0.21502299999999999</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="2"/>
+        <v>7.1069999999999994E-2</v>
+      </c>
+      <c r="H34">
         <v>278657</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>0.33</v>
       </c>
@@ -4400,11 +3927,23 @@
       <c r="D35">
         <v>71925</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="1">
+        <f t="shared" si="0"/>
+        <v>0.71113300000000002</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="1"/>
+        <v>0.216942</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="2"/>
+        <v>7.1925000000000003E-2</v>
+      </c>
+      <c r="H35">
         <v>280346</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>0.34</v>
       </c>
@@ -4417,11 +3956,23 @@
       <c r="D36">
         <v>72539</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="1">
+        <f t="shared" si="0"/>
+        <v>0.70697600000000005</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="1"/>
+        <v>0.22048499999999999</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="2"/>
+        <v>7.2539000000000006E-2</v>
+      </c>
+      <c r="H36">
         <v>281531</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>0.35</v>
       </c>
@@ -4434,11 +3985,23 @@
       <c r="D37">
         <v>73446</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="1">
+        <f t="shared" si="0"/>
+        <v>0.705874</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="1"/>
+        <v>0.22067999999999999</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="2"/>
+        <v>7.3445999999999997E-2</v>
+      </c>
+      <c r="H37">
         <v>282556</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>0.36</v>
       </c>
@@ -4451,11 +4014,23 @@
       <c r="D38">
         <v>73606</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="1">
+        <f t="shared" si="0"/>
+        <v>0.70374899999999996</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="1"/>
+        <v>0.22264500000000001</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" si="2"/>
+        <v>7.3606000000000005E-2</v>
+      </c>
+      <c r="H38">
         <v>284253</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>0.37</v>
       </c>
@@ -4468,11 +4043,23 @@
       <c r="D39">
         <v>74835</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="1">
+        <f t="shared" si="0"/>
+        <v>0.69967999999999997</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="1"/>
+        <v>0.22548499999999999</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" si="2"/>
+        <v>7.4834999999999999E-2</v>
+      </c>
+      <c r="H39">
         <v>284997</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>0.38</v>
       </c>
@@ -4485,11 +4072,23 @@
       <c r="D40">
         <v>75528</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="1">
+        <f t="shared" si="0"/>
+        <v>0.69723299999999999</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="1"/>
+        <v>0.227239</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="2"/>
+        <v>7.5527999999999998E-2</v>
+      </c>
+      <c r="H40">
         <v>286285</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>0.39</v>
       </c>
@@ -4502,11 +4101,23 @@
       <c r="D41">
         <v>76362</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="1">
+        <f t="shared" si="0"/>
+        <v>0.69253600000000004</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="1"/>
+        <v>0.231102</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="2"/>
+        <v>7.6361999999999999E-2</v>
+      </c>
+      <c r="H41">
         <v>287574</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>0.4</v>
       </c>
@@ -4519,11 +4130,23 @@
       <c r="D42">
         <v>77370</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="1">
+        <f t="shared" si="0"/>
+        <v>0.69065900000000002</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23197100000000001</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" si="2"/>
+        <v>7.7369999999999994E-2</v>
+      </c>
+      <c r="H42">
         <v>288415</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>0.41</v>
       </c>
@@ -4536,11 +4159,23 @@
       <c r="D43">
         <v>78456</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="1">
+        <f t="shared" si="0"/>
+        <v>0.68700099999999997</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="1"/>
+        <v>0.234543</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" si="2"/>
+        <v>7.8455999999999998E-2</v>
+      </c>
+      <c r="H43">
         <v>289726</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>0.42</v>
       </c>
@@ -4553,11 +4188,23 @@
       <c r="D44">
         <v>78861</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="1">
+        <f t="shared" si="0"/>
+        <v>0.68381599999999998</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23732300000000001</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" si="2"/>
+        <v>7.8861000000000001E-2</v>
+      </c>
+      <c r="H44">
         <v>291461</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>0.43</v>
       </c>
@@ -4570,11 +4217,23 @@
       <c r="D45">
         <v>80083</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="1">
+        <f t="shared" si="0"/>
+        <v>0.68004200000000004</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="1"/>
+        <v>0.239875</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" si="2"/>
+        <v>8.0083000000000001E-2</v>
+      </c>
+      <c r="H45">
         <v>292424</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>0.44</v>
       </c>
@@ -4587,11 +4246,23 @@
       <c r="D46">
         <v>81236</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="1">
+        <f t="shared" si="0"/>
+        <v>0.67614200000000002</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="1"/>
+        <v>0.242622</v>
+      </c>
+      <c r="G46" s="1">
+        <f t="shared" si="2"/>
+        <v>8.1236000000000003E-2</v>
+      </c>
+      <c r="H46">
         <v>293734</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>0.45</v>
       </c>
@@ -4604,11 +4275,23 @@
       <c r="D47">
         <v>82049</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="1">
+        <f t="shared" si="0"/>
+        <v>0.67215899999999995</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="1"/>
+        <v>0.24579200000000001</v>
+      </c>
+      <c r="G47" s="1">
+        <f t="shared" si="2"/>
+        <v>8.2048999999999997E-2</v>
+      </c>
+      <c r="H47">
         <v>294978</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>0.46</v>
       </c>
@@ -4621,11 +4304,23 @@
       <c r="D48">
         <v>83147</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="1">
+        <f t="shared" si="0"/>
+        <v>0.66998400000000002</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="1"/>
+        <v>0.24686900000000001</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" si="2"/>
+        <v>8.3146999999999999E-2</v>
+      </c>
+      <c r="H48">
         <v>295550</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>0.47</v>
       </c>
@@ -4638,11 +4333,23 @@
       <c r="D49">
         <v>83792</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="1">
+        <f t="shared" si="0"/>
+        <v>0.666404</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="1"/>
+        <v>0.249804</v>
+      </c>
+      <c r="G49" s="1">
+        <f t="shared" si="2"/>
+        <v>8.3792000000000005E-2</v>
+      </c>
+      <c r="H49">
         <v>296859</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>0.48</v>
       </c>
@@ -4655,11 +4362,23 @@
       <c r="D50">
         <v>84868</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="1">
+        <f t="shared" si="0"/>
+        <v>0.66415299999999999</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25097900000000001</v>
+      </c>
+      <c r="G50" s="1">
+        <f t="shared" si="2"/>
+        <v>8.4867999999999999E-2</v>
+      </c>
+      <c r="H50">
         <v>297691</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>0.49</v>
       </c>
@@ -4672,11 +4391,23 @@
       <c r="D51">
         <v>86230</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="1">
+        <f t="shared" si="0"/>
+        <v>0.659304</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25446600000000003</v>
+      </c>
+      <c r="G51" s="1">
+        <f t="shared" si="2"/>
+        <v>8.6230000000000001E-2</v>
+      </c>
+      <c r="H51">
         <v>299002</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>0.5</v>
       </c>
@@ -4689,11 +4420,23 @@
       <c r="D52">
         <v>87384</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="1">
+        <f t="shared" si="0"/>
+        <v>0.65592600000000001</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25668999999999997</v>
+      </c>
+      <c r="G52" s="1">
+        <f t="shared" si="2"/>
+        <v>8.7384000000000003E-2</v>
+      </c>
+      <c r="H52">
         <v>299969</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>0.51</v>
       </c>
@@ -4706,11 +4449,23 @@
       <c r="D53">
         <v>87785</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="1">
+        <f t="shared" si="0"/>
+        <v>0.65379100000000001</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25842399999999999</v>
+      </c>
+      <c r="G53" s="1">
+        <f t="shared" si="2"/>
+        <v>8.7785000000000002E-2</v>
+      </c>
+      <c r="H53">
         <v>301321</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>0.52</v>
       </c>
@@ -4723,11 +4478,23 @@
       <c r="D54">
         <v>89064</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="1">
+        <f t="shared" si="0"/>
+        <v>0.64980099999999996</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="1"/>
+        <v>0.26113500000000001</v>
+      </c>
+      <c r="G54" s="1">
+        <f t="shared" si="2"/>
+        <v>8.9064000000000004E-2</v>
+      </c>
+      <c r="H54">
         <v>302270</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>0.53</v>
       </c>
@@ -4740,11 +4507,23 @@
       <c r="D55">
         <v>90688</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="1">
+        <f t="shared" si="0"/>
+        <v>0.646034</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" si="1"/>
+        <v>0.26327800000000001</v>
+      </c>
+      <c r="G55" s="1">
+        <f t="shared" si="2"/>
+        <v>9.0688000000000005E-2</v>
+      </c>
+      <c r="H55">
         <v>303088</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>0.54</v>
       </c>
@@ -4757,11 +4536,23 @@
       <c r="D56">
         <v>91771</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="1">
+        <f t="shared" si="0"/>
+        <v>0.64143600000000001</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" si="1"/>
+        <v>0.266793</v>
+      </c>
+      <c r="G56" s="1">
+        <f t="shared" si="2"/>
+        <v>9.1771000000000005E-2</v>
+      </c>
+      <c r="H56">
         <v>304318</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>0.55000000000000004</v>
       </c>
@@ -4774,11 +4565,23 @@
       <c r="D57">
         <v>93184</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="1">
+        <f t="shared" si="0"/>
+        <v>0.63869200000000004</v>
+      </c>
+      <c r="F57" s="1">
+        <f t="shared" si="1"/>
+        <v>0.26812399999999997</v>
+      </c>
+      <c r="G57" s="1">
+        <f t="shared" si="2"/>
+        <v>9.3184000000000003E-2</v>
+      </c>
+      <c r="H57">
         <v>305520</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>0.56000000000000005</v>
       </c>
@@ -4791,11 +4594,23 @@
       <c r="D58">
         <v>94142</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="1">
+        <f t="shared" si="0"/>
+        <v>0.63410100000000003</v>
+      </c>
+      <c r="F58" s="1">
+        <f t="shared" si="1"/>
+        <v>0.27175700000000003</v>
+      </c>
+      <c r="G58" s="1">
+        <f t="shared" si="2"/>
+        <v>9.4142000000000003E-2</v>
+      </c>
+      <c r="H58">
         <v>306541</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>0.56999999999999995</v>
       </c>
@@ -4808,11 +4623,23 @@
       <c r="D59">
         <v>94935</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="1">
+        <f t="shared" si="0"/>
+        <v>0.631436</v>
+      </c>
+      <c r="F59" s="1">
+        <f t="shared" si="1"/>
+        <v>0.27362900000000001</v>
+      </c>
+      <c r="G59" s="1">
+        <f t="shared" si="2"/>
+        <v>9.4935000000000005E-2</v>
+      </c>
+      <c r="H59">
         <v>307011</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>0.57999999999999996</v>
       </c>
@@ -4825,11 +4652,23 @@
       <c r="D60">
         <v>96546</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="1">
+        <f t="shared" si="0"/>
+        <v>0.62660000000000005</v>
+      </c>
+      <c r="F60" s="1">
+        <f t="shared" si="1"/>
+        <v>0.27685399999999999</v>
+      </c>
+      <c r="G60" s="1">
+        <f t="shared" si="2"/>
+        <v>9.6546000000000007E-2</v>
+      </c>
+      <c r="H60">
         <v>308421</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>0.59</v>
       </c>
@@ -4842,11 +4681,23 @@
       <c r="D61">
         <v>97703</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="1">
+        <f t="shared" si="0"/>
+        <v>0.62314800000000004</v>
+      </c>
+      <c r="F61" s="1">
+        <f t="shared" si="1"/>
+        <v>0.27914899999999998</v>
+      </c>
+      <c r="G61" s="1">
+        <f t="shared" si="2"/>
+        <v>9.7702999999999998E-2</v>
+      </c>
+      <c r="H61">
         <v>309250</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>0.6</v>
       </c>
@@ -4859,11 +4710,23 @@
       <c r="D62">
         <v>98551</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="1">
+        <f t="shared" si="0"/>
+        <v>0.61959200000000003</v>
+      </c>
+      <c r="F62" s="1">
+        <f t="shared" si="1"/>
+        <v>0.28185700000000002</v>
+      </c>
+      <c r="G62" s="1">
+        <f t="shared" si="2"/>
+        <v>9.8551E-2</v>
+      </c>
+      <c r="H62">
         <v>310678</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>0.61</v>
       </c>
@@ -4876,11 +4739,23 @@
       <c r="D63">
         <v>100413</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="1">
+        <f t="shared" si="0"/>
+        <v>0.61520300000000006</v>
+      </c>
+      <c r="F63" s="1">
+        <f t="shared" si="1"/>
+        <v>0.28438400000000003</v>
+      </c>
+      <c r="G63" s="1">
+        <f t="shared" si="2"/>
+        <v>0.100413</v>
+      </c>
+      <c r="H63">
         <v>311346</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>0.62</v>
       </c>
@@ -4893,11 +4768,23 @@
       <c r="D64">
         <v>101159</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="1">
+        <f t="shared" si="0"/>
+        <v>0.61194800000000005</v>
+      </c>
+      <c r="F64" s="1">
+        <f t="shared" si="1"/>
+        <v>0.28689300000000001</v>
+      </c>
+      <c r="G64" s="1">
+        <f t="shared" si="2"/>
+        <v>0.101159</v>
+      </c>
+      <c r="H64">
         <v>312338</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>0.63</v>
       </c>
@@ -4910,11 +4797,23 @@
       <c r="D65">
         <v>103230</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="1">
+        <f t="shared" si="0"/>
+        <v>0.60760899999999995</v>
+      </c>
+      <c r="F65" s="1">
+        <f t="shared" si="1"/>
+        <v>0.289161</v>
+      </c>
+      <c r="G65" s="1">
+        <f t="shared" si="2"/>
+        <v>0.10323</v>
+      </c>
+      <c r="H65">
         <v>313041</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>0.64</v>
       </c>
@@ -4927,11 +4826,23 @@
       <c r="D66">
         <v>103777</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="1">
+        <f t="shared" si="0"/>
+        <v>0.60358699999999998</v>
+      </c>
+      <c r="F66" s="1">
+        <f t="shared" si="1"/>
+        <v>0.29263600000000001</v>
+      </c>
+      <c r="G66" s="1">
+        <f t="shared" si="2"/>
+        <v>0.10377699999999999</v>
+      </c>
+      <c r="H66">
         <v>314155</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>0.65</v>
       </c>
@@ -4944,11 +4855,23 @@
       <c r="D67">
         <v>105518</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="1">
+        <f t="shared" ref="E67:E102" si="3">B67/1000000</f>
+        <v>0.60038800000000003</v>
+      </c>
+      <c r="F67" s="1">
+        <f t="shared" ref="F67:F102" si="4">C67/1000000</f>
+        <v>0.29409400000000002</v>
+      </c>
+      <c r="G67" s="1">
+        <f t="shared" ref="G67:G102" si="5">D67/1000000</f>
+        <v>0.105518</v>
+      </c>
+      <c r="H67">
         <v>315131</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>0.66</v>
       </c>
@@ -4961,11 +4884,23 @@
       <c r="D68">
         <v>106821</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="1">
+        <f t="shared" si="3"/>
+        <v>0.59601199999999999</v>
+      </c>
+      <c r="F68" s="1">
+        <f t="shared" si="4"/>
+        <v>0.29716700000000001</v>
+      </c>
+      <c r="G68" s="1">
+        <f t="shared" si="5"/>
+        <v>0.106821</v>
+      </c>
+      <c r="H68">
         <v>315682</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>0.67</v>
       </c>
@@ -4978,11 +4913,23 @@
       <c r="D69">
         <v>108596</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="1">
+        <f t="shared" si="3"/>
+        <v>0.59134500000000001</v>
+      </c>
+      <c r="F69" s="1">
+        <f t="shared" si="4"/>
+        <v>0.30005900000000002</v>
+      </c>
+      <c r="G69" s="1">
+        <f t="shared" si="5"/>
+        <v>0.108596</v>
+      </c>
+      <c r="H69">
         <v>316958</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>0.68</v>
       </c>
@@ -4995,11 +4942,23 @@
       <c r="D70">
         <v>110275</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="1">
+        <f t="shared" si="3"/>
+        <v>0.58723999999999998</v>
+      </c>
+      <c r="F70" s="1">
+        <f t="shared" si="4"/>
+        <v>0.302485</v>
+      </c>
+      <c r="G70" s="1">
+        <f t="shared" si="5"/>
+        <v>0.110275</v>
+      </c>
+      <c r="H70">
         <v>317805</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>0.69</v>
       </c>
@@ -5012,11 +4971,23 @@
       <c r="D71">
         <v>111989</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="1">
+        <f t="shared" si="3"/>
+        <v>0.58249899999999999</v>
+      </c>
+      <c r="F71" s="1">
+        <f t="shared" si="4"/>
+        <v>0.30551200000000001</v>
+      </c>
+      <c r="G71" s="1">
+        <f t="shared" si="5"/>
+        <v>0.11198900000000001</v>
+      </c>
+      <c r="H71">
         <v>318693</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>0.7</v>
       </c>
@@ -5029,11 +5000,23 @@
       <c r="D72">
         <v>113314</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="1">
+        <f t="shared" si="3"/>
+        <v>0.57943900000000004</v>
+      </c>
+      <c r="F72" s="1">
+        <f t="shared" si="4"/>
+        <v>0.30724699999999999</v>
+      </c>
+      <c r="G72" s="1">
+        <f t="shared" si="5"/>
+        <v>0.113314</v>
+      </c>
+      <c r="H72">
         <v>319708</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>0.71</v>
       </c>
@@ -5046,11 +5029,23 @@
       <c r="D73">
         <v>114904</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="1">
+        <f t="shared" si="3"/>
+        <v>0.57449499999999998</v>
+      </c>
+      <c r="F73" s="1">
+        <f t="shared" si="4"/>
+        <v>0.31060100000000002</v>
+      </c>
+      <c r="G73" s="1">
+        <f t="shared" si="5"/>
+        <v>0.11490400000000001</v>
+      </c>
+      <c r="H73">
         <v>320589</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>0.72</v>
       </c>
@@ -5063,11 +5058,23 @@
       <c r="D74">
         <v>116235</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="1">
+        <f t="shared" si="3"/>
+        <v>0.57100600000000001</v>
+      </c>
+      <c r="F74" s="1">
+        <f t="shared" si="4"/>
+        <v>0.31275900000000001</v>
+      </c>
+      <c r="G74" s="1">
+        <f t="shared" si="5"/>
+        <v>0.116235</v>
+      </c>
+      <c r="H74">
         <v>321348</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>0.73</v>
       </c>
@@ -5080,11 +5087,23 @@
       <c r="D75">
         <v>118122</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="1">
+        <f t="shared" si="3"/>
+        <v>0.56585200000000002</v>
+      </c>
+      <c r="F75" s="1">
+        <f t="shared" si="4"/>
+        <v>0.31602599999999997</v>
+      </c>
+      <c r="G75" s="1">
+        <f t="shared" si="5"/>
+        <v>0.118122</v>
+      </c>
+      <c r="H75">
         <v>322184</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>0.74</v>
       </c>
@@ -5097,11 +5116,23 @@
       <c r="D76">
         <v>119601</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="1">
+        <f t="shared" si="3"/>
+        <v>0.56093800000000005</v>
+      </c>
+      <c r="F76" s="1">
+        <f t="shared" si="4"/>
+        <v>0.31946099999999999</v>
+      </c>
+      <c r="G76" s="1">
+        <f t="shared" si="5"/>
+        <v>0.119601</v>
+      </c>
+      <c r="H76">
         <v>322910</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>0.75</v>
       </c>
@@ -5114,11 +5145,23 @@
       <c r="D77">
         <v>120869</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="1">
+        <f t="shared" si="3"/>
+        <v>0.55754300000000001</v>
+      </c>
+      <c r="F77" s="1">
+        <f t="shared" si="4"/>
+        <v>0.32158799999999998</v>
+      </c>
+      <c r="G77" s="1">
+        <f t="shared" si="5"/>
+        <v>0.120869</v>
+      </c>
+      <c r="H77">
         <v>323661</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>0.76</v>
       </c>
@@ -5131,11 +5174,23 @@
       <c r="D78">
         <v>123372</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="1">
+        <f t="shared" si="3"/>
+        <v>0.55182900000000001</v>
+      </c>
+      <c r="F78" s="1">
+        <f t="shared" si="4"/>
+        <v>0.324799</v>
+      </c>
+      <c r="G78" s="1">
+        <f t="shared" si="5"/>
+        <v>0.123372</v>
+      </c>
+      <c r="H78">
         <v>324571</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>0.77</v>
       </c>
@@ -5148,11 +5203,23 @@
       <c r="D79">
         <v>124274</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="1">
+        <f t="shared" si="3"/>
+        <v>0.54735299999999998</v>
+      </c>
+      <c r="F79" s="1">
+        <f t="shared" si="4"/>
+        <v>0.32837300000000003</v>
+      </c>
+      <c r="G79" s="1">
+        <f t="shared" si="5"/>
+        <v>0.124274</v>
+      </c>
+      <c r="H79">
         <v>325371</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>0.78</v>
       </c>
@@ -5165,11 +5232,23 @@
       <c r="D80">
         <v>126961</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="1">
+        <f t="shared" si="3"/>
+        <v>0.54262500000000002</v>
+      </c>
+      <c r="F80" s="1">
+        <f t="shared" si="4"/>
+        <v>0.33041399999999999</v>
+      </c>
+      <c r="G80" s="1">
+        <f t="shared" si="5"/>
+        <v>0.12696099999999999</v>
+      </c>
+      <c r="H80">
         <v>326229</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>0.79</v>
       </c>
@@ -5182,11 +5261,23 @@
       <c r="D81">
         <v>128630</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="1">
+        <f t="shared" si="3"/>
+        <v>0.53735699999999997</v>
+      </c>
+      <c r="F81" s="1">
+        <f t="shared" si="4"/>
+        <v>0.334013</v>
+      </c>
+      <c r="G81" s="1">
+        <f t="shared" si="5"/>
+        <v>0.12862999999999999</v>
+      </c>
+      <c r="H81">
         <v>326177</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>0.8</v>
       </c>
@@ -5199,11 +5290,23 @@
       <c r="D82">
         <v>130789</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="1">
+        <f t="shared" si="3"/>
+        <v>0.53258099999999997</v>
+      </c>
+      <c r="F82" s="1">
+        <f t="shared" si="4"/>
+        <v>0.33662999999999998</v>
+      </c>
+      <c r="G82" s="1">
+        <f t="shared" si="5"/>
+        <v>0.13078899999999999</v>
+      </c>
+      <c r="H82">
         <v>327620</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>0.81</v>
       </c>
@@ -5216,11 +5319,23 @@
       <c r="D83">
         <v>132429</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="1">
+        <f t="shared" si="3"/>
+        <v>0.52745500000000001</v>
+      </c>
+      <c r="F83" s="1">
+        <f t="shared" si="4"/>
+        <v>0.34011599999999997</v>
+      </c>
+      <c r="G83" s="1">
+        <f t="shared" si="5"/>
+        <v>0.13242899999999999</v>
+      </c>
+      <c r="H83">
         <v>328238</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>0.82</v>
       </c>
@@ -5233,11 +5348,23 @@
       <c r="D84">
         <v>134553</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="1">
+        <f t="shared" si="3"/>
+        <v>0.52304799999999996</v>
+      </c>
+      <c r="F84" s="1">
+        <f t="shared" si="4"/>
+        <v>0.34239900000000001</v>
+      </c>
+      <c r="G84" s="1">
+        <f t="shared" si="5"/>
+        <v>0.13455300000000001</v>
+      </c>
+      <c r="H84">
         <v>328886</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>0.83</v>
       </c>
@@ -5250,11 +5377,23 @@
       <c r="D85">
         <v>136069</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="1">
+        <f t="shared" si="3"/>
+        <v>0.51764900000000003</v>
+      </c>
+      <c r="F85" s="1">
+        <f t="shared" si="4"/>
+        <v>0.34628199999999998</v>
+      </c>
+      <c r="G85" s="1">
+        <f t="shared" si="5"/>
+        <v>0.136069</v>
+      </c>
+      <c r="H85">
         <v>329473</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>0.84</v>
       </c>
@@ -5267,11 +5406,23 @@
       <c r="D86">
         <v>138676</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="1">
+        <f t="shared" si="3"/>
+        <v>0.51239699999999999</v>
+      </c>
+      <c r="F86" s="1">
+        <f t="shared" si="4"/>
+        <v>0.34892699999999999</v>
+      </c>
+      <c r="G86" s="1">
+        <f t="shared" si="5"/>
+        <v>0.13867599999999999</v>
+      </c>
+      <c r="H86">
         <v>330646</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>0.85</v>
       </c>
@@ -5284,11 +5435,23 @@
       <c r="D87">
         <v>140592</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="1">
+        <f t="shared" si="3"/>
+        <v>0.50731899999999996</v>
+      </c>
+      <c r="F87" s="1">
+        <f t="shared" si="4"/>
+        <v>0.35208899999999999</v>
+      </c>
+      <c r="G87" s="1">
+        <f t="shared" si="5"/>
+        <v>0.14059199999999999</v>
+      </c>
+      <c r="H87">
         <v>331283</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>0.86</v>
       </c>
@@ -5301,11 +5464,23 @@
       <c r="D88">
         <v>143051</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="1">
+        <f t="shared" si="3"/>
+        <v>0.50207400000000002</v>
+      </c>
+      <c r="F88" s="1">
+        <f t="shared" si="4"/>
+        <v>0.354875</v>
+      </c>
+      <c r="G88" s="1">
+        <f t="shared" si="5"/>
+        <v>0.14305100000000001</v>
+      </c>
+      <c r="H88">
         <v>331692</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>0.87</v>
       </c>
@@ -5318,11 +5493,23 @@
       <c r="D89">
         <v>145931</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="1">
+        <f t="shared" si="3"/>
+        <v>0.49527500000000002</v>
+      </c>
+      <c r="F89" s="1">
+        <f t="shared" si="4"/>
+        <v>0.358794</v>
+      </c>
+      <c r="G89" s="1">
+        <f t="shared" si="5"/>
+        <v>0.14593100000000001</v>
+      </c>
+      <c r="H89">
         <v>332497</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>0.88</v>
       </c>
@@ -5335,11 +5522,23 @@
       <c r="D90">
         <v>147236</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="1">
+        <f t="shared" si="3"/>
+        <v>0.48957600000000001</v>
+      </c>
+      <c r="F90" s="1">
+        <f t="shared" si="4"/>
+        <v>0.36318800000000001</v>
+      </c>
+      <c r="G90" s="1">
+        <f t="shared" si="5"/>
+        <v>0.14723600000000001</v>
+      </c>
+      <c r="H90">
         <v>332933</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>0.89</v>
       </c>
@@ -5352,11 +5551,23 @@
       <c r="D91">
         <v>149440</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="1">
+        <f t="shared" si="3"/>
+        <v>0.48424400000000001</v>
+      </c>
+      <c r="F91" s="1">
+        <f t="shared" si="4"/>
+        <v>0.36631599999999997</v>
+      </c>
+      <c r="G91" s="1">
+        <f t="shared" si="5"/>
+        <v>0.14943999999999999</v>
+      </c>
+      <c r="H91">
         <v>333678</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>0.9</v>
       </c>
@@ -5369,11 +5580,23 @@
       <c r="D92">
         <v>152201</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="1">
+        <f t="shared" si="3"/>
+        <v>0.47789199999999998</v>
+      </c>
+      <c r="F92" s="1">
+        <f t="shared" si="4"/>
+        <v>0.36990699999999999</v>
+      </c>
+      <c r="G92" s="1">
+        <f t="shared" si="5"/>
+        <v>0.152201</v>
+      </c>
+      <c r="H92">
         <v>334214</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>0.91</v>
       </c>
@@ -5386,11 +5609,23 @@
       <c r="D93">
         <v>155016</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="1">
+        <f t="shared" si="3"/>
+        <v>0.47212500000000002</v>
+      </c>
+      <c r="F93" s="1">
+        <f t="shared" si="4"/>
+        <v>0.372859</v>
+      </c>
+      <c r="G93" s="1">
+        <f t="shared" si="5"/>
+        <v>0.15501599999999999</v>
+      </c>
+      <c r="H93">
         <v>334658</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>0.92</v>
       </c>
@@ -5403,11 +5638,23 @@
       <c r="D94">
         <v>157719</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="1">
+        <f t="shared" si="3"/>
+        <v>0.46521800000000002</v>
+      </c>
+      <c r="F94" s="1">
+        <f t="shared" si="4"/>
+        <v>0.37706299999999998</v>
+      </c>
+      <c r="G94" s="1">
+        <f t="shared" si="5"/>
+        <v>0.157719</v>
+      </c>
+      <c r="H94">
         <v>335176</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>0.93</v>
       </c>
@@ -5420,11 +5667,23 @@
       <c r="D95">
         <v>160387</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="1">
+        <f t="shared" si="3"/>
+        <v>0.45832299999999998</v>
+      </c>
+      <c r="F95" s="1">
+        <f t="shared" si="4"/>
+        <v>0.38129000000000002</v>
+      </c>
+      <c r="G95" s="1">
+        <f t="shared" si="5"/>
+        <v>0.160387</v>
+      </c>
+      <c r="H95">
         <v>335941</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>0.94</v>
       </c>
@@ -5437,11 +5696,23 @@
       <c r="D96">
         <v>163548</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="1">
+        <f t="shared" si="3"/>
+        <v>0.45150200000000001</v>
+      </c>
+      <c r="F96" s="1">
+        <f t="shared" si="4"/>
+        <v>0.38495000000000001</v>
+      </c>
+      <c r="G96" s="1">
+        <f t="shared" si="5"/>
+        <v>0.163548</v>
+      </c>
+      <c r="H96">
         <v>336316</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>0.95</v>
       </c>
@@ -5454,11 +5725,23 @@
       <c r="D97">
         <v>165805</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="1">
+        <f t="shared" si="3"/>
+        <v>0.44665100000000002</v>
+      </c>
+      <c r="F97" s="1">
+        <f t="shared" si="4"/>
+        <v>0.387544</v>
+      </c>
+      <c r="G97" s="1">
+        <f t="shared" si="5"/>
+        <v>0.16580500000000001</v>
+      </c>
+      <c r="H97">
         <v>336562</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>0.96</v>
       </c>
@@ -5471,11 +5754,23 @@
       <c r="D98">
         <v>168164</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="1">
+        <f t="shared" si="3"/>
+        <v>0.43970100000000001</v>
+      </c>
+      <c r="F98" s="1">
+        <f t="shared" si="4"/>
+        <v>0.39213500000000001</v>
+      </c>
+      <c r="G98" s="1">
+        <f t="shared" si="5"/>
+        <v>0.16816400000000001</v>
+      </c>
+      <c r="H98">
         <v>336909</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>0.97</v>
       </c>
@@ -5488,11 +5783,23 @@
       <c r="D99">
         <v>170860</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="1">
+        <f t="shared" si="3"/>
+        <v>0.43281599999999998</v>
+      </c>
+      <c r="F99" s="1">
+        <f t="shared" si="4"/>
+        <v>0.39632400000000001</v>
+      </c>
+      <c r="G99" s="1">
+        <f t="shared" si="5"/>
+        <v>0.17086000000000001</v>
+      </c>
+      <c r="H99">
         <v>337172</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>0.98</v>
       </c>
@@ -5505,11 +5812,23 @@
       <c r="D100">
         <v>174330</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="1">
+        <f t="shared" si="3"/>
+        <v>0.42410900000000001</v>
+      </c>
+      <c r="F100" s="1">
+        <f t="shared" si="4"/>
+        <v>0.401561</v>
+      </c>
+      <c r="G100" s="1">
+        <f t="shared" si="5"/>
+        <v>0.17433000000000001</v>
+      </c>
+      <c r="H100">
         <v>337500</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>0.99</v>
       </c>
@@ -5522,11 +5841,23 @@
       <c r="D101">
         <v>177961</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="1">
+        <f t="shared" si="3"/>
+        <v>0.41766300000000001</v>
+      </c>
+      <c r="F101" s="1">
+        <f t="shared" si="4"/>
+        <v>0.40437600000000001</v>
+      </c>
+      <c r="G101" s="1">
+        <f t="shared" si="5"/>
+        <v>0.17796100000000001</v>
+      </c>
+      <c r="H101">
         <v>337986</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>1</v>
       </c>
@@ -5539,11 +5870,37 @@
       <c r="D102">
         <v>180833</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="1">
+        <f t="shared" si="3"/>
+        <v>0.41022799999999998</v>
+      </c>
+      <c r="F102" s="1">
+        <f t="shared" si="4"/>
+        <v>0.408939</v>
+      </c>
+      <c r="G102" s="1">
+        <f t="shared" si="5"/>
+        <v>0.18083299999999999</v>
+      </c>
+      <c r="H102">
         <v>338059</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
